--- a/Wahlergebnisse.xlsx
+++ b/Wahlergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janjo/Documents/MEINE_DOKUMENTE/Projects/sjf-alumniboard-election-algo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0508DCB1-0747-DB4E-B544-864DD62A433E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522C41C-25BC-5941-ABA2-B356E57C7DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57600" yWindow="500" windowWidth="19200" windowHeight="19680" xr2:uid="{BE638228-EB3E-A949-9326-CCD60C3F29BE}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,10 +556,10 @@
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
@@ -568,7 +568,7 @@
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -594,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="51">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -680,7 +680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -700,12 +700,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>30</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -738,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -758,7 +758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -778,12 +778,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>30</v>
@@ -798,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -818,7 +818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -838,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -872,12 +872,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -892,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -912,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -932,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -972,7 +972,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -980,7 +980,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -988,7 +988,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -996,7 +996,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1004,7 +1004,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1012,7 +1012,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1020,7 +1020,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1028,7 +1028,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1036,7 +1036,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1044,7 +1044,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1052,7 +1052,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1060,7 +1060,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1068,7 +1068,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1076,7 +1076,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1084,7 +1084,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1092,7 +1092,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1100,7 +1100,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1108,7 +1108,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1116,7 +1116,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1124,7 +1124,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1132,7 +1132,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1140,7 +1140,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1148,7 +1148,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1156,7 +1156,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1164,7 +1164,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:8">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1172,7 +1172,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:8">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1180,7 +1180,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:8">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1188,7 +1188,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1196,7 +1196,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1204,7 +1204,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1220,7 +1220,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1228,7 +1228,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1236,7 +1236,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1244,7 +1244,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -1252,7 +1252,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1260,7 +1260,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1268,7 +1268,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1276,7 +1276,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:8">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1284,7 +1284,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:8">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1292,7 +1292,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:8">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1300,7 +1300,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:8">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1308,7 +1308,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:8">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -1316,7 +1316,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1324,7 +1324,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -1332,7 +1332,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:8">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -1340,7 +1340,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:8">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -1348,7 +1348,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:8">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -1356,7 +1356,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:8">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -1364,7 +1364,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:8">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -1372,7 +1372,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:8">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -1380,7 +1380,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:8">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -1388,7 +1388,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:8">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -1396,7 +1396,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:8">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -1404,7 +1404,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:8">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -1412,7 +1412,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:8">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -1420,7 +1420,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:8">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -1428,7 +1428,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:8">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -1436,7 +1436,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:8">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -1444,7 +1444,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:8">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -1452,7 +1452,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:8">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -1460,7 +1460,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:8">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -1468,7 +1468,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:8">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -1476,7 +1476,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:8">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -1484,7 +1484,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:8">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -1492,7 +1492,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:8">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -1500,7 +1500,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:8">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -1508,7 +1508,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:8">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -1516,7 +1516,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:8">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -1524,7 +1524,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:8">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -1532,7 +1532,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:8">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -1540,7 +1540,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:8">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -1548,7 +1548,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:8">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -1556,7 +1556,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:8">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -1564,7 +1564,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:8">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -1572,7 +1572,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -1580,7 +1580,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -1588,7 +1588,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -1596,7 +1596,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -1604,7 +1604,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:8">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -1612,7 +1612,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -1620,7 +1620,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -1628,7 +1628,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -1636,7 +1636,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -1644,7 +1644,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -1652,7 +1652,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -1660,7 +1660,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -1668,7 +1668,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -1676,7 +1676,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -1684,7 +1684,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -1692,7 +1692,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -1700,7 +1700,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:8">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -1708,7 +1708,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:8">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -1716,7 +1716,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:8">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -1724,7 +1724,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:8">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -1732,7 +1732,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:8">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -1740,7 +1740,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -1748,7 +1748,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:8">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -1756,7 +1756,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:8">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -1764,7 +1764,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -1772,7 +1772,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:8">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -1780,7 +1780,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -1788,7 +1788,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -1796,7 +1796,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -1804,7 +1804,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -1812,7 +1812,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -1820,7 +1820,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -1828,7 +1828,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:8">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -1836,7 +1836,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:8">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -1844,7 +1844,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:8">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -1852,7 +1852,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:8">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -1860,7 +1860,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:8">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -1868,7 +1868,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:8">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -1876,7 +1876,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:8">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -1884,7 +1884,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:8">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -1892,7 +1892,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:8">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -1900,7 +1900,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:8">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -1908,7 +1908,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:8">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -1916,7 +1916,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:8">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -1924,7 +1924,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:8">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -1932,7 +1932,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:8">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -1940,7 +1940,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:8">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -1948,7 +1948,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:8">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -1956,7 +1956,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:8">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -1964,7 +1964,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:8">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -1972,7 +1972,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:8">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -1980,7 +1980,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:8">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -1988,7 +1988,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:8">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -1996,7 +1996,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:8">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -2004,7 +2004,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:8">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -2012,7 +2012,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:8">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -2020,7 +2020,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -2028,7 +2028,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -2036,7 +2036,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:8">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -2044,7 +2044,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:8">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -2052,7 +2052,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:8">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -2060,7 +2060,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:8">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -2068,7 +2068,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:8">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -2076,7 +2076,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:8">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -2084,7 +2084,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:8">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -2092,7 +2092,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:8">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -2100,7 +2100,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:8">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -2108,7 +2108,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:8">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -2116,7 +2116,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:8">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -2124,7 +2124,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:8">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -2132,7 +2132,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:8">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -2140,7 +2140,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:8">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -2148,7 +2148,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:8">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -2156,7 +2156,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:8">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -2164,7 +2164,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:8">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -2172,7 +2172,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:8">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -2180,7 +2180,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:8">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -2188,7 +2188,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:8">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -2196,7 +2196,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:8">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -2204,7 +2204,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:8">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -2212,7 +2212,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:8">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -2220,7 +2220,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:8">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -2228,7 +2228,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:8">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -2236,7 +2236,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:8">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -2244,7 +2244,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:8">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -2252,7 +2252,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:8">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -2260,7 +2260,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:8">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -2268,7 +2268,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:8">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -2276,7 +2276,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:8">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -2284,7 +2284,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:8">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -2292,7 +2292,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:8">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -2300,7 +2300,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:8">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -2308,7 +2308,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:8">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -2316,7 +2316,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:8">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -2324,7 +2324,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:8">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -2332,7 +2332,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:8">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -2340,7 +2340,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:8">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -2348,7 +2348,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:8">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -2356,7 +2356,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:8">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -2364,7 +2364,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:8">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -2372,7 +2372,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:8">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -2380,7 +2380,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:8">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -2388,7 +2388,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:8">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -2396,7 +2396,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:8">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -2404,7 +2404,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:8">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -2412,7 +2412,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:8">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -2420,7 +2420,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:8">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -2428,7 +2428,7 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:8">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -2436,7 +2436,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:8">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -2444,7 +2444,7 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:8">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -2452,7 +2452,7 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:8">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -2460,7 +2460,7 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:8">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -2468,7 +2468,7 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:8">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -2476,7 +2476,7 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:8">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -2484,7 +2484,7 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:8">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -2492,7 +2492,7 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:8">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -2500,7 +2500,7 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:8">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -2508,7 +2508,7 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:8">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -2516,7 +2516,7 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:8">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -2524,7 +2524,7 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:8">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -2532,7 +2532,7 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:8">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -2540,7 +2540,7 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:8">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -2548,7 +2548,7 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:8">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -2556,7 +2556,7 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:8">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -2564,7 +2564,7 @@
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:8">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -2572,7 +2572,7 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:8">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -2580,7 +2580,7 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:8">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -2588,7 +2588,7 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:8">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -2596,7 +2596,7 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:8">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -2604,7 +2604,7 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:8">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -2612,7 +2612,7 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:8">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -2620,7 +2620,7 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:8">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -2628,7 +2628,7 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:8">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -2636,7 +2636,7 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:8">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -2644,7 +2644,7 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:8">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -2652,7 +2652,7 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:8">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -2660,7 +2660,7 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:8">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -2668,7 +2668,7 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:8">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -2676,7 +2676,7 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:8">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -2684,7 +2684,7 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:8">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -2692,7 +2692,7 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:8">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -2700,7 +2700,7 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:8">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -2708,7 +2708,7 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:8">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -2716,7 +2716,7 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:8">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -2724,7 +2724,7 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:8">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -2732,7 +2732,7 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:8">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -2740,7 +2740,7 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:8">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -2748,7 +2748,7 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:8">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -2756,7 +2756,7 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:8">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -2764,7 +2764,7 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:8">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -2772,7 +2772,7 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:8">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -2780,7 +2780,7 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:8">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -2788,7 +2788,7 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:8">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -2796,7 +2796,7 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:8">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -2804,7 +2804,7 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:8">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -2812,7 +2812,7 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:8">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -2820,7 +2820,7 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:8">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -2828,7 +2828,7 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:8">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -2836,7 +2836,7 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:8">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -2844,7 +2844,7 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:8">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -2852,7 +2852,7 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:8">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -2860,7 +2860,7 @@
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:8">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -2868,7 +2868,7 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:8">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -2876,7 +2876,7 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:8">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -2884,7 +2884,7 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:8">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -2892,7 +2892,7 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:8">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -2900,7 +2900,7 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:8">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -2908,7 +2908,7 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:8">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -2916,7 +2916,7 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:8">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -2924,7 +2924,7 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:8">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -2932,7 +2932,7 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:8">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -2940,7 +2940,7 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:8">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -2948,7 +2948,7 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:8">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -2956,7 +2956,7 @@
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:8">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -2964,7 +2964,7 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:8">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -2972,7 +2972,7 @@
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:8">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -2980,7 +2980,7 @@
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:8">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -2988,7 +2988,7 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:8">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -2996,7 +2996,7 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:8">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -3004,7 +3004,7 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:8">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -3012,7 +3012,7 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:8">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -3020,7 +3020,7 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:8">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -3028,7 +3028,7 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:8">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -3036,7 +3036,7 @@
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:8">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -3044,7 +3044,7 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:8">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -3052,7 +3052,7 @@
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:8">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -3060,7 +3060,7 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:8">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -3068,7 +3068,7 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:8">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -3076,7 +3076,7 @@
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
     </row>
-    <row r="285" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:8">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -3084,7 +3084,7 @@
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:8">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -3092,7 +3092,7 @@
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:8">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -3100,7 +3100,7 @@
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:8">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -3108,7 +3108,7 @@
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
     </row>
-    <row r="289" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:8">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -3116,7 +3116,7 @@
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
     </row>
-    <row r="290" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:8">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -3124,7 +3124,7 @@
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:8">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -3132,7 +3132,7 @@
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
     </row>
-    <row r="292" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:8">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -3140,7 +3140,7 @@
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
     </row>
-    <row r="293" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:8">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -3148,7 +3148,7 @@
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
     </row>
-    <row r="294" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:8">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -3156,7 +3156,7 @@
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
     </row>
-    <row r="295" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:8">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -3164,7 +3164,7 @@
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
     </row>
-    <row r="296" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:8">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -3172,7 +3172,7 @@
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
     </row>
-    <row r="297" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:8">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -3180,7 +3180,7 @@
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
     </row>
-    <row r="298" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:8">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -3188,7 +3188,7 @@
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
     </row>
-    <row r="299" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:8">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -3196,7 +3196,7 @@
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
     </row>
-    <row r="300" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:8">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -3204,7 +3204,7 @@
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
     </row>
-    <row r="301" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:8">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -3212,7 +3212,7 @@
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
     </row>
-    <row r="302" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:8">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -3220,7 +3220,7 @@
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
     </row>
-    <row r="303" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:8">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -3228,7 +3228,7 @@
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
     </row>
-    <row r="304" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:8">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -3236,7 +3236,7 @@
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
     </row>
-    <row r="305" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:8">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -3244,7 +3244,7 @@
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
     </row>
-    <row r="306" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:8">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -3252,7 +3252,7 @@
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
     </row>
-    <row r="307" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:8">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -3260,7 +3260,7 @@
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
     </row>
-    <row r="308" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:8">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -3268,7 +3268,7 @@
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
     </row>
-    <row r="309" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:8">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -3276,7 +3276,7 @@
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
     </row>
-    <row r="310" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:8">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -3284,7 +3284,7 @@
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
     </row>
-    <row r="311" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:8">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -3292,7 +3292,7 @@
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
     </row>
-    <row r="312" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:8">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -3300,7 +3300,7 @@
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
     </row>
-    <row r="313" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:8">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -3308,7 +3308,7 @@
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
     </row>
-    <row r="314" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:8">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -3316,7 +3316,7 @@
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
     </row>
-    <row r="315" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:8">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -3324,7 +3324,7 @@
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
     </row>
-    <row r="316" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:8">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -3332,7 +3332,7 @@
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
     </row>
-    <row r="317" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:8">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -3340,7 +3340,7 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
     </row>
-    <row r="318" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:8">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -3348,7 +3348,7 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
     </row>
-    <row r="319" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:8">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -3356,7 +3356,7 @@
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
     </row>
-    <row r="320" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:8">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -3364,7 +3364,7 @@
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
     </row>
-    <row r="321" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:8">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -3372,7 +3372,7 @@
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
     </row>
-    <row r="322" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:8">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -3380,7 +3380,7 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
     </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:8">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -3388,7 +3388,7 @@
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
     </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:8">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -3396,7 +3396,7 @@
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
     </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:8">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -3404,7 +3404,7 @@
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
     </row>
-    <row r="326" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:8">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -3412,7 +3412,7 @@
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
     </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:8">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -3420,7 +3420,7 @@
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:8">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -3428,7 +3428,7 @@
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:8">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -3436,7 +3436,7 @@
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:8">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -3444,7 +3444,7 @@
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:8">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -3452,7 +3452,7 @@
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
     </row>
-    <row r="332" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:8">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -3460,7 +3460,7 @@
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:8">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -3468,7 +3468,7 @@
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
     </row>
-    <row r="334" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:8">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -3476,7 +3476,7 @@
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
     </row>
-    <row r="335" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:8">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -3484,7 +3484,7 @@
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
     </row>
-    <row r="336" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:8">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -3492,7 +3492,7 @@
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
     </row>
-    <row r="337" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:8">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -3500,7 +3500,7 @@
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
     </row>
-    <row r="338" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:8">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -3508,7 +3508,7 @@
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
     </row>
-    <row r="339" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:8">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -3516,7 +3516,7 @@
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
     </row>
-    <row r="340" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:8">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -3524,7 +3524,7 @@
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
     </row>
-    <row r="341" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:8">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -3532,7 +3532,7 @@
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
     </row>
-    <row r="342" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:8">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -3540,7 +3540,7 @@
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
     </row>
-    <row r="343" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:8">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -3548,7 +3548,7 @@
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
     </row>
-    <row r="344" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:8">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -3556,7 +3556,7 @@
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
     </row>
-    <row r="345" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:8">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -3564,7 +3564,7 @@
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
     </row>
-    <row r="346" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:8">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -3572,7 +3572,7 @@
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
     </row>
-    <row r="347" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:8">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -3580,7 +3580,7 @@
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
     </row>
-    <row r="348" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:8">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -3588,7 +3588,7 @@
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
     </row>
-    <row r="349" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:8">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -3596,7 +3596,7 @@
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
     </row>
-    <row r="350" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:8">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -3604,7 +3604,7 @@
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
     </row>
-    <row r="351" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:8">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -3612,7 +3612,7 @@
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
     </row>
-    <row r="352" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:8">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -3620,7 +3620,7 @@
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
     </row>
-    <row r="353" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:8">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -3628,7 +3628,7 @@
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
     </row>
-    <row r="354" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:8">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -3636,7 +3636,7 @@
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
     </row>
-    <row r="355" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:8">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -3644,7 +3644,7 @@
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
     </row>
-    <row r="356" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:8">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -3652,7 +3652,7 @@
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
     </row>
-    <row r="357" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:8">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -3660,7 +3660,7 @@
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
     </row>
-    <row r="358" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:8">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -3668,7 +3668,7 @@
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
     </row>
-    <row r="359" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:8">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -3676,7 +3676,7 @@
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
     </row>
-    <row r="360" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:8">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -3684,7 +3684,7 @@
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
     </row>
-    <row r="361" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:8">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -3692,7 +3692,7 @@
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
     </row>
-    <row r="362" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:8">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -3700,7 +3700,7 @@
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
     </row>
-    <row r="363" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:8">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -3708,7 +3708,7 @@
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
     </row>
-    <row r="364" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:8">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -3716,7 +3716,7 @@
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
     </row>
-    <row r="365" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:8">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -3724,7 +3724,7 @@
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
     </row>
-    <row r="366" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:8">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -3732,7 +3732,7 @@
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
     </row>
-    <row r="367" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:8">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -3740,7 +3740,7 @@
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
     </row>
-    <row r="368" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:8">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -3748,7 +3748,7 @@
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
     </row>
-    <row r="369" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:8">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -3756,7 +3756,7 @@
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
     </row>
-    <row r="370" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:8">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -3764,7 +3764,7 @@
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
     </row>
-    <row r="371" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:8">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -3772,7 +3772,7 @@
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
     </row>
-    <row r="372" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:8">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -3780,7 +3780,7 @@
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
     </row>
-    <row r="373" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:8">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -3788,7 +3788,7 @@
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
     </row>
-    <row r="374" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:8">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -3796,7 +3796,7 @@
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
     </row>
-    <row r="375" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:8">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -3804,7 +3804,7 @@
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
     </row>
-    <row r="376" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:8">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -3812,7 +3812,7 @@
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
     </row>
-    <row r="377" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:8">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -3820,7 +3820,7 @@
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
     </row>
-    <row r="378" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:8">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -3828,7 +3828,7 @@
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
     </row>
-    <row r="379" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:8">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -3836,7 +3836,7 @@
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
     </row>
-    <row r="380" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:8">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -3844,7 +3844,7 @@
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
     </row>
-    <row r="381" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:8">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -3852,7 +3852,7 @@
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
     </row>
-    <row r="382" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:8">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -3860,7 +3860,7 @@
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
     </row>
-    <row r="383" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:8">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -3868,7 +3868,7 @@
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
     </row>
-    <row r="384" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:8">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -3876,7 +3876,7 @@
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
     </row>
-    <row r="385" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:8">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -3884,7 +3884,7 @@
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
     </row>
-    <row r="386" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:8">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -3892,7 +3892,7 @@
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
     </row>
-    <row r="387" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:8">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -3900,7 +3900,7 @@
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
     </row>
-    <row r="388" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:8">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -3908,7 +3908,7 @@
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
     </row>
-    <row r="389" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:8">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -3916,7 +3916,7 @@
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
     </row>
-    <row r="390" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:8">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -3924,7 +3924,7 @@
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
     </row>
-    <row r="391" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:8">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -3932,7 +3932,7 @@
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
     </row>
-    <row r="392" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:8">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -3940,7 +3940,7 @@
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
     </row>
-    <row r="393" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:8">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -3948,7 +3948,7 @@
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
     </row>
-    <row r="394" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:8">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -3956,7 +3956,7 @@
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
     </row>
-    <row r="395" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:8">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -3964,7 +3964,7 @@
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
     </row>
-    <row r="396" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:8">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -3972,7 +3972,7 @@
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
     </row>
-    <row r="397" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:8">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -3980,7 +3980,7 @@
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
     </row>
-    <row r="398" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:8">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -3988,7 +3988,7 @@
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
     </row>
-    <row r="399" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:8">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -3996,7 +3996,7 @@
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
     </row>
-    <row r="400" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:8">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -4004,7 +4004,7 @@
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
     </row>
-    <row r="401" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:8">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -4012,7 +4012,7 @@
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
     </row>
-    <row r="402" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:8">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -4020,7 +4020,7 @@
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
     </row>
-    <row r="403" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:8">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -4028,7 +4028,7 @@
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
     </row>
-    <row r="404" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:8">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -4036,7 +4036,7 @@
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
     </row>
-    <row r="405" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:8">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -4044,7 +4044,7 @@
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
     </row>
-    <row r="406" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:8">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -4052,7 +4052,7 @@
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
     </row>
-    <row r="407" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:8">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -4060,7 +4060,7 @@
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
     </row>
-    <row r="408" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:8">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
